--- a/Output/PBL/Customer/Army/Army_Contracts.xlsx
+++ b/Output/PBL/Customer/Army/Army_Contracts.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -151,15 +152,28 @@
   </si>
   <si>
     <t xml:space="preserve">CB-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,10 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2804,4 +2819,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="n">
+        <v>51898253.625</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>177977149.89</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>541565390.1627</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>581611108.152</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>754585155.5593</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>769067490.5231</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>987029156.7482</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>910079298.8625</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>786361101.3975</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>860013990.0325</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>590824641.4519</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>111810797.4877</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>104366333.9605</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>27280479.1511</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>275408009.8016</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>328525108.5223</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>416675525.7689</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>295281995.168</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>-13516485.03</v>
+      </c>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>18004428</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>25605219</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>45326698</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>94334977.28</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>107983693.67</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>134773849.82</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>126900806.5748</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>59940160.3681</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>72112616.8846</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>43638408.4538</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>21760356.74</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>13178964.7718</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>-2816375.96</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>-1137224.555</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>-251181.57</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>-631769.92</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>50817512</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>551014.69</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3" t="n">
+        <v>438.12</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>57606904</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>49730914</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>254878597</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>643701356.4069</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>552538379.5846</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>709165361.0026</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>627350488.0411</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>819584143.7304</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>672491545.1156</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>651784436.8929</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>516749715.6664</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>433740056.2962</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>649906420.0727</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>748354284.4185</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>730941507.9367</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>886264108.4109</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>772785936.5945</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>639831045.0375</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>535889295.7596</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>477395766.7811</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>342533396.71</v>
+      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="n">
+        <v>75500176.587617</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>251979479.149538</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>751151995.800531</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>798529613.445389</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>1027120984.67175</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1026235992.87528</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>1293608000.97081</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>1171500368.80896</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>994108322.798591</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>1076075315.30877</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>733393980.200122</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>136487440.519455</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>124633128.372246</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>31986630.4038371</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>318754676.699497</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>367580751.578903</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>435737012.175423</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>295281995.168</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>-13164903.2809576</v>
+      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>27866115.4565145</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>38459814.0152474</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>65940055.0905067</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>133559158.888034</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>149773542.562913</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>185039296.345739</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>172733959.109144</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>79983552.4794076</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>94511350.0802688</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>56173579.2273928</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>27509183.3813452</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>16489916.2532484</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>-3495983.46129999</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>-1388210.01455518</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>-299958.268826428</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>-740756.451504149</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>58815717.1605207</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>616520.286051341</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3" t="n">
+        <v>438.12</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>89160324.2244824</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>74697338.1968833</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>370790493.663824</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>911350320.057998</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>766371548.330803</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>973656681.677872</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>853932583.040904</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>1093644911.33791</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>881372589.045711</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>839010083.141487</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>653268825.524089</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>542708575.965539</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>806732527.274819</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>913516075.165149</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>872882311.126852</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>1039153393.12443</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>894415277.008647</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>715895285.679313</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>560404406.186767</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>477395766.7811</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>333623647.581181</v>
+      </c>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Customer/Army/Army_Contracts.xlsx
+++ b/Output/PBL/Customer/Army/Army_Contracts.xlsx
@@ -170,10 +170,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -209,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2910,67 +2912,67 @@
       <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="n">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="n">
         <v>51898253.625</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>177977149.89</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>541565390.1627</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>581611108.152</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>754585155.5593</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>769067490.5231</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>987029156.7482</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>910079298.8625</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>786361101.3975</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>860013990.0325</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>590824641.4519</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="4" t="n">
         <v>111810797.4877</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="4" t="n">
         <v>104366333.9605</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="4" t="n">
         <v>27280479.1511</v>
       </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AD2" s="4" t="n">
         <v>275408009.8016</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AE2" s="4" t="n">
         <v>328525108.5223</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="4" t="n">
         <v>416675525.7689</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>295281995.168</v>
       </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AH2" s="4" t="n">
         <v>-13516485.03</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2979,69 +2981,69 @@
       <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <v>18004428</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="4" t="n">
         <v>25605219</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="4" t="n">
         <v>45326698</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="4" t="n">
         <v>94334977.28</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="4" t="n">
         <v>107983693.67</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>134773849.82</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>126900806.5748</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="4" t="n">
         <v>59940160.3681</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <v>72112616.8846</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>43638408.4538</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="4" t="n">
         <v>21760356.74</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="4" t="n">
         <v>13178964.7718</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="4" t="n">
         <v>-2816375.96</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="4" t="n">
         <v>-1137224.555</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="4" t="n">
         <v>-251181.57</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="4" t="n">
         <v>-631769.92</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="4" t="n">
         <v>50817512</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="4" t="n">
         <v>551014.69</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3" t="n">
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4" t="n">
         <v>438.12</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3050,71 +3052,71 @@
       <c r="M4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="4" t="n">
         <v>57606904</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="4" t="n">
         <v>49730914</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>254878597</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>643701356.4069</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <v>552538379.5846</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>709165361.0026</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <v>627350488.0411</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <v>819584143.7304</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <v>672491545.1156</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>651784436.8929</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="4" t="n">
         <v>516749715.6664</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="4" t="n">
         <v>433740056.2962</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="4" t="n">
         <v>649906420.0727</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="4" t="n">
         <v>748354284.4185</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="4" t="n">
         <v>730941507.9367</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="4" t="n">
         <v>886264108.4109</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="4" t="n">
         <v>772785936.5945</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="4" t="n">
         <v>639831045.0375</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="4" t="n">
         <v>535889295.7596</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="4" t="n">
         <v>477395766.7811</v>
       </c>
-      <c r="AH4" s="3" t="n">
+      <c r="AH4" s="4" t="n">
         <v>342533396.71</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3123,73 +3125,73 @@
       <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="4" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="4" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="4" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="4" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="4" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="4" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="4" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="4" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="4" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="3" t="str">
+      <c r="W5" s="4" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="3" t="str">
+      <c r="X5" s="4" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="3" t="str">
+      <c r="Y5" s="4" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="3" t="str">
+      <c r="Z5" s="4" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="3" t="str">
+      <c r="AA5" s="4" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="3" t="str">
+      <c r="AB5" s="4" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="3" t="str">
+      <c r="AC5" s="4" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AD5" s="4" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="3" t="str">
+      <c r="AE5" s="4" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="3" t="str">
+      <c r="AF5" s="4" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AG5" s="4" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="3" t="str">
+      <c r="AH5" s="4" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="3" t="str">
+      <c r="AI5" s="4" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3269,67 +3271,67 @@
       <c r="M9" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3" t="n">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="n">
         <v>75500176.587617</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>251979479.149538</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>751151995.800531</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>798529613.445389</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>1027120984.67175</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <v>1026235992.87528</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <v>1293608000.97081</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <v>1171500368.80896</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="4" t="n">
         <v>994108322.798591</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="4" t="n">
         <v>1076075315.30877</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>733393980.200122</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="4" t="n">
         <v>136487440.519455</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="4" t="n">
         <v>124633128.372246</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="4" t="n">
         <v>31986630.4038371</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="4" t="n">
         <v>318754676.699497</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="4" t="n">
         <v>367580751.578903</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="4" t="n">
         <v>435737012.175423</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="4" t="n">
         <v>295281995.168</v>
       </c>
-      <c r="AH9" s="3" t="n">
+      <c r="AH9" s="4" t="n">
         <v>-13164903.2809576</v>
       </c>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3338,69 +3340,69 @@
       <c r="M10" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <v>27866115.4565145</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="4" t="n">
         <v>38459814.0152474</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="4" t="n">
         <v>65940055.0905067</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="4" t="n">
         <v>133559158.888034</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="4" t="n">
         <v>149773542.562913</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <v>185039296.345739</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <v>172733959.109144</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="4" t="n">
         <v>79983552.4794076</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="4" t="n">
         <v>94511350.0802688</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>56173579.2273928</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="4" t="n">
         <v>27509183.3813452</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="4" t="n">
         <v>16489916.2532484</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="4" t="n">
         <v>-3495983.46129999</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AA10" s="4" t="n">
         <v>-1388210.01455518</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AB10" s="4" t="n">
         <v>-299958.268826428</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="4" t="n">
         <v>-740756.451504149</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AD10" s="4" t="n">
         <v>58815717.1605207</v>
       </c>
-      <c r="AE10" s="3" t="n">
+      <c r="AE10" s="4" t="n">
         <v>616520.286051341</v>
       </c>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3" t="n">
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4" t="n">
         <v>438.12</v>
       </c>
-      <c r="AH10" s="3" t="n">
+      <c r="AH10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3409,99 +3411,99 @@
       <c r="M11" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="4" t="n">
         <v>89160324.2244824</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="4" t="n">
         <v>74697338.1968833</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>370790493.663824</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>911350320.057998</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <v>766371548.330803</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <v>973656681.677872</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>853932583.040904</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <v>1093644911.33791</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>881372589.045711</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>839010083.141487</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="4" t="n">
         <v>653268825.524089</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="4" t="n">
         <v>542708575.965539</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="4" t="n">
         <v>806732527.274819</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="4" t="n">
         <v>913516075.165149</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="4" t="n">
         <v>872882311.126852</v>
       </c>
-      <c r="AC11" s="3" t="n">
+      <c r="AC11" s="4" t="n">
         <v>1039153393.12443</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>894415277.008647</v>
       </c>
-      <c r="AE11" s="3" t="n">
+      <c r="AE11" s="4" t="n">
         <v>715895285.679313</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="4" t="n">
         <v>560404406.186767</v>
       </c>
-      <c r="AG11" s="3" t="n">
+      <c r="AG11" s="4" t="n">
         <v>477395766.7811</v>
       </c>
-      <c r="AH11" s="3" t="n">
+      <c r="AH11" s="4" t="n">
         <v>333623647.581181</v>
       </c>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Customer/Army/Army_Contracts.xlsx
+++ b/Output/PBL/Customer/Army/Army_Contracts.xlsx
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -212,10 +212,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
